--- a/Mod/ModProject_Cave/ModProject/ModExcel/DramaDialogue.xlsx
+++ b/Mod/ModProject_Cave/ModProject/ModExcel/DramaDialogue.xlsx
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -245,9 +245,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,15 +267,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,7 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,6 +299,30 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,17 +344,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,22 +355,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,15 +375,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,13 +403,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,145 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +523,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,39 +594,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,7 +616,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,28 +677,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,10 +700,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,7 +712,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,124 +721,124 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:R8489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Mod/ModProject_Cave/ModProject/ModExcel/DramaDialogue.xlsx
+++ b/Mod/ModProject_Cave/ModProject/ModExcel/DramaDialogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="DramaDialogue" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -160,6 +160,18 @@
     <t>worldData_www.yellowshange.com.caveDragonSex_1_1</t>
   </si>
   <si>
+    <t>大鬼说话</t>
+  </si>
+  <si>
+    <t>drama_dialogue42685193</t>
+  </si>
+  <si>
+    <t>42685185|42685186</t>
+  </si>
+  <si>
+    <t>地牢征服剧情</t>
+  </si>
+  <si>
     <t>注释</t>
   </si>
   <si>
@@ -226,15 +238,43 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -245,7 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,30 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,16 +314,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,17 +337,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +362,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -352,22 +378,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,7 +386,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,19 +421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +475,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,37 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,103 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +612,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,7 +667,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,21 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -661,190 +712,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1164,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R8489"/>
+  <dimension ref="A1:T8489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1868,8 +1894,118 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" customHeight="1"/>
-    <row r="15" customHeight="1"/>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A14" s="2">
+        <v>42685192</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>42685192</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A15" s="2">
+        <v>42685193</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
     <row r="16" customHeight="1"/>
     <row r="17" customHeight="1"/>
     <row r="18" customHeight="1"/>
@@ -1882,104 +2018,104 @@
     <row r="25" customHeight="1"/>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customHeight="1"/>
